--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/103.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/103.xlsx
@@ -479,13 +479,13 @@
         <v>-6.816187901216562</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.494053136099813</v>
+        <v>-8.443988170033053</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.163361743103066</v>
+        <v>-2.19979762191159</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.815721466859388</v>
+        <v>-5.92246301192798</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.11535834830281</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.191427739267194</v>
+        <v>-9.137186328593923</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.077436959552818</v>
+        <v>-2.116124714450118</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.737246203626081</v>
+        <v>-5.844472163899818</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.353847893781116</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.770500293956738</v>
+        <v>-9.709882931799546</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.173495185502562</v>
+        <v>-2.211017725446949</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.581840568894792</v>
+        <v>-5.69620183421727</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.507855939080103</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.42216966790365</v>
+        <v>-10.36346378196135</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.069607762453466</v>
+        <v>-2.10991896290314</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.489003049444113</v>
+        <v>-5.577454647442814</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.607873065166854</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.10230170822848</v>
+        <v>-11.04023110045586</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.205283296802273</v>
+        <v>-2.235186116492775</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.015467547961723</v>
+        <v>-5.11989175542733</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.679313485540233</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.59688963268037</v>
+        <v>-11.54415383683389</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.980763395369512</v>
+        <v>-2.017670597080338</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.945620112301114</v>
+        <v>-5.027656481907369</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.745932552863086</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.21129831273973</v>
+        <v>-12.15833994774495</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.835137710860993</v>
+        <v>-1.870447651625128</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.542167707930484</v>
+        <v>-4.607301914568071</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.826992298341344</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.82111159450165</v>
+        <v>-12.76724986061079</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.752381264598443</v>
+        <v>-1.789668143091679</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.95687630939112</v>
+        <v>-4.023201915587304</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.936053383919173</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.43874098106007</v>
+        <v>-13.38757626155461</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.681774475373014</v>
+        <v>-1.706427281623984</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.585735708433869</v>
+        <v>-3.66121283431642</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.071501327665517</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.29590714041072</v>
+        <v>-14.24503045156777</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.506115048145576</v>
+        <v>-1.53428968386097</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.088712615653423</v>
+        <v>-3.151503300082341</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.231284314192033</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.94078160918278</v>
+        <v>-14.89464433396854</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.37349002035889</v>
+        <v>-1.397894072855868</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.679735259483584</v>
+        <v>-2.731593871039661</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.395918202619367</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.66915878547937</v>
+        <v>-15.63323350648167</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.203132975782351</v>
+        <v>-1.235772086766774</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.075630221760659</v>
+        <v>-2.126506910603607</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.547060252385746</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.31687428396808</v>
+        <v>-16.28449701904049</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9855781794613888</v>
+        <v>-1.017510306092359</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.370701359853603</v>
+        <v>-1.421473310273816</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.662298365955403</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.94919323431493</v>
+        <v>-16.92218381355244</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7587016635171178</v>
+        <v>-0.7978083721053535</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.196887947326847</v>
+        <v>-1.252870634278068</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.718401031004715</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.79587245908935</v>
+        <v>-17.77969037277698</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5639274741407591</v>
+        <v>-0.6095148726356492</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6751073098726967</v>
+        <v>-0.7277252749935939</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.701475565553801</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.67132856550989</v>
+        <v>-18.6460735133282</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2612727093485775</v>
+        <v>-0.2999735565487198</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4668087716608351</v>
+        <v>-0.5120688625846821</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.5968164203118</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.41562598206202</v>
+        <v>-19.39683852748414</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1409937231416401</v>
+        <v>-0.1730174958925021</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.05855149214729106</v>
+        <v>-0.1038377676768215</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.401032935677584</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.09124117790645</v>
+        <v>-20.07096120080461</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09472009722079602</v>
+        <v>0.06391390863421459</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07408662794223574</v>
+        <v>0.03933965620029475</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.115592096541521</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.56497306393146</v>
+        <v>-20.56405660273255</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820195725694254</v>
+        <v>0.1604827343947861</v>
       </c>
       <c r="G20" t="n">
-        <v>0.322316689821362</v>
+        <v>0.290436932401759</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.744617282485387</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.21365739283047</v>
+        <v>-21.21103893226212</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4248556056777605</v>
+        <v>0.4066311201220779</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4550202714250974</v>
+        <v>0.4289534964672208</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.304445717628774</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.64078068073894</v>
+        <v>-21.63435236004365</v>
       </c>
       <c r="F22" t="n">
-        <v>0.531125827844051</v>
+        <v>0.5190678169268214</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6472545540501613</v>
+        <v>0.6076896148624651</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.809416259726885</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.00369931551159</v>
+        <v>-22.01084771286317</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6747745746234695</v>
+        <v>0.6638948709619951</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6755470204911314</v>
+        <v>0.6420045406106292</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.282721760716568</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.28608719550477</v>
+        <v>-22.30865832560391</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8629371510647565</v>
+        <v>0.8504209095480664</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8388865907445058</v>
+        <v>0.7880884557186086</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.747944872191722</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.41992980745574</v>
+        <v>-22.45486007143747</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8628978741562313</v>
+        <v>0.8636179508125262</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9421063063486741</v>
+        <v>0.8968069385163019</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.220628348481375</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.63463048175721</v>
+        <v>-22.67972037274411</v>
       </c>
       <c r="F26" t="n">
-        <v>1.026355275135181</v>
+        <v>1.028476228195541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7461799943222435</v>
+        <v>0.6890713693266344</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.723541424081767</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.50554037573779</v>
+        <v>-22.55191331240318</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9865939514048593</v>
+        <v>0.9904692730460102</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6361653735432193</v>
+        <v>0.5786116102509915</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.264077399316023</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.61116907506483</v>
+        <v>-22.65832754990073</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9874580433924132</v>
+        <v>0.9879031816890319</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2046299795770864</v>
+        <v>0.1374664659990316</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.84830830602984</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.35946955293265</v>
+        <v>-22.39779072335038</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9578694389701122</v>
+        <v>0.9537322712721268</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03605891586520567</v>
+        <v>-0.09570744761210964</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.478772094782723</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.20797851675104</v>
+        <v>-22.24495117997607</v>
       </c>
       <c r="F30" t="n">
-        <v>0.89603449264864</v>
+        <v>0.8909284945403668</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5012022512260494</v>
+        <v>-0.5635608896611907</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.146488540467594</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.73263627747649</v>
+        <v>-21.7834082278967</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8874328496816261</v>
+        <v>0.8841990508797196</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7981749565849219</v>
+        <v>-0.8544587665015022</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.850490368991461</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.25526473126147</v>
+        <v>-21.31580353960161</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8379963141512684</v>
+        <v>0.8300361940234989</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.224329414083105</v>
+        <v>-1.276489148604542</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.582686873562471</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.06227109507159</v>
+        <v>-21.10671946321925</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7424486880123515</v>
+        <v>0.7327603839094743</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.633346047161469</v>
+        <v>-1.688386088308086</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.337223895362371</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.56692381705488</v>
+        <v>-20.61658292173355</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7016399800546914</v>
+        <v>0.6855364475593683</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.028746685284438</v>
+        <v>-2.070982454251847</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.115651113748194</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.18233742107918</v>
+        <v>-20.2280295579968</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6584353806769954</v>
+        <v>0.6369247271080394</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.218977845574718</v>
+        <v>-2.273310902367881</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.917192375866634</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.63052304090611</v>
+        <v>-19.67531180892765</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6737010057904479</v>
+        <v>0.6532115518431466</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.54802669289582</v>
+        <v>-2.593758106721969</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.748363021224424</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.25627956417537</v>
+        <v>-19.30469490008407</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5933011740394082</v>
+        <v>0.5730997507546248</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.781514821775162</v>
+        <v>-2.823632760016995</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.61723443829013</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.54378335122579</v>
+        <v>-18.60217502189989</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7716968925607676</v>
+        <v>0.7447136564039701</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.847120351315052</v>
+        <v>-2.88973579706487</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.528573019387621</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.09960079271455</v>
+        <v>-18.14192820780185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8707794404669504</v>
+        <v>0.8375773604603332</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.76094681401081</v>
+        <v>-2.815371516923866</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.489462969438043</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.50380936729612</v>
+        <v>-17.54850648919778</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7538128068789698</v>
+        <v>0.725075202141381</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.815227501592607</v>
+        <v>-2.871197096240986</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.502906784017275</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.9493110650405</v>
+        <v>-16.99521267880359</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9178462691829556</v>
+        <v>0.881986451699468</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.984039654433823</v>
+        <v>-3.028474930278641</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.568394897708445</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.30888797923463</v>
+        <v>-16.35156888649866</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9001192911352586</v>
+        <v>0.8594545985088574</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.12351195660673</v>
+        <v>-3.17592044488216</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.685448215127752</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.7488647251798</v>
+        <v>-15.7872382648089</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9185139766278837</v>
+        <v>0.8815020364943241</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.138738304811658</v>
+        <v>-3.188462871004534</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.84899893560722</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.1517640694772</v>
+        <v>-15.19864760595342</v>
       </c>
       <c r="F44" t="n">
-        <v>1.011220573050146</v>
+        <v>0.9610115916521265</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.307039857842046</v>
+        <v>-3.340883460687909</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.051527406240817</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.65353648483531</v>
+        <v>-14.68380588900538</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9710010187203635</v>
+        <v>0.92652646596702</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.407981512751755</v>
+        <v>-3.435004025817077</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.287476362199821</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.18284201306957</v>
+        <v>-14.21284957118281</v>
       </c>
       <c r="F46" t="n">
-        <v>0.777457505811127</v>
+        <v>0.7353002906607691</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.438722239824128</v>
+        <v>-3.466176798883227</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.547001043338284</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.41165300648054</v>
+        <v>-13.43644982806277</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8326546545918442</v>
+        <v>0.7855616412701555</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.310653333426363</v>
+        <v>-3.338094800182621</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.822917269870086</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.84171887917452</v>
+        <v>-12.8661229316715</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7513907308532505</v>
+        <v>0.7109224227694751</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.317120931030176</v>
+        <v>-3.359657822962943</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.110428765980622</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.43380199953486</v>
+        <v>-12.44943420912788</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7133968680065613</v>
+        <v>0.6704672069885416</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.459408078314055</v>
+        <v>-3.490070251569377</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.400291919068167</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.884121664725</v>
+        <v>-11.90012045879758</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6594173033901248</v>
+        <v>0.6196167027512776</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.612588021562249</v>
+        <v>-3.634714013364766</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.692296187071214</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.41454003870081</v>
+        <v>-11.42593034217311</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6649291628864915</v>
+        <v>0.6250631007334356</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.791533616802961</v>
+        <v>-3.81025560986663</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.981840904920158</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.95579883942957</v>
+        <v>-10.96443975930511</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6051104312026451</v>
+        <v>0.5679675680406682</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.841349829115729</v>
+        <v>-3.866041912275224</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.265186043064372</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.34493817344031</v>
+        <v>-10.36396128946934</v>
       </c>
       <c r="F53" t="n">
-        <v>0.579397148421495</v>
+        <v>0.5450298534619641</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.999544124352305</v>
+        <v>-4.021709393063348</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.543431392834381</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.918652792913711</v>
+        <v>-9.930684619225257</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5689625830566394</v>
+        <v>0.5323041350998065</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.056063595720037</v>
+        <v>-4.088270660710683</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.811244709639522</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.421459500196322</v>
+        <v>-9.443192722913587</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4812834309255999</v>
+        <v>0.4446380752716086</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.164179832587011</v>
+        <v>-4.204386294613951</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.06986363534161</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.109077154392738</v>
+        <v>-9.112114568652018</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4494822273230473</v>
+        <v>0.410113672677977</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.422425506140057</v>
+        <v>-4.465931228483113</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.317064872955299</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.593541545394091</v>
+        <v>-8.596133821356752</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4199852690206385</v>
+        <v>0.3809440219466113</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.398348761214123</v>
+        <v>-4.44922545005707</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.54859843671133</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.501240810359922</v>
+        <v>-8.486171569789095</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3838112362689494</v>
+        <v>0.339808006417908</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.465014767284192</v>
+        <v>-4.517043578777211</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.764890373350666</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.941178279396564</v>
+        <v>-7.931673267533471</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3793860379084459</v>
+        <v>0.3393235912127642</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.706476108594146</v>
+        <v>-4.753896429486878</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.960460128640987</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.854795265246856</v>
+        <v>-7.84041991672664</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5031606689741241</v>
+        <v>0.4517733803203494</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.767695716682057</v>
+        <v>-4.811803684955832</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.133880679752393</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.522970849723309</v>
+        <v>-7.510952115714604</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4515639034748817</v>
+        <v>0.4071679045385886</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.883536412225649</v>
+        <v>-4.922564566996835</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.282073865192707</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.243293076418356</v>
+        <v>-7.227163359317349</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4217134529957463</v>
+        <v>0.3787706996748848</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.075482664188195</v>
+        <v>-5.113267050189417</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.399287933640935</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.067437264648292</v>
+        <v>-7.048270133288004</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3913393104029418</v>
+        <v>0.3429239744942388</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.0287955122546</v>
+        <v>-5.060478885131577</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.484328077456422</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.858889972682436</v>
+        <v>-6.832260228702366</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1894560005835259</v>
+        <v>0.1390113577343553</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.032212603296291</v>
+        <v>-5.053382856991361</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.530853369755832</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.801388578601576</v>
+        <v>-6.776644126230714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0990274648557239</v>
+        <v>0.05317822030399921</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.086231444821252</v>
+        <v>-5.11123774324895</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.536815238917155</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.522692728009753</v>
+        <v>-6.505882211160976</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1450861862529162</v>
+        <v>0.0949557586719471</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.0526104111237</v>
+        <v>-5.079816216428807</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.49947089943356</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.41049169265616</v>
+        <v>-6.389596377320766</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01628411089601515</v>
+        <v>-0.03781328444599696</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.018360946889745</v>
+        <v>-5.032487541655967</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.417073043567618</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.196026679805846</v>
+        <v>-6.170784719926998</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.01721909207596186</v>
+        <v>-0.07220676401121134</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.007153935657227</v>
+        <v>-5.019984392442119</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.292486014573154</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.218257410031097</v>
+        <v>-6.192596496461314</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.09801169291225342</v>
+        <v>-0.152514949642359</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.895005269515002</v>
+        <v>-4.909760294817627</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.123998441963431</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.360033957504148</v>
+        <v>-6.329489614974402</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1285298508363169</v>
+        <v>-0.1883093056116381</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.831939646726407</v>
+        <v>-4.844089303763528</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.917306768707094</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.379803334795155</v>
+        <v>-6.349691038259185</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1277704972714968</v>
+        <v>-0.1871833675672497</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.782346003561948</v>
+        <v>-4.785344140912704</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.673778837708962</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.49467519992846</v>
+        <v>-6.458488074873928</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2388194099750173</v>
+        <v>-0.2956007273995833</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.65675154240127</v>
+        <v>-4.659788956660551</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.396290547959639</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.578335015087089</v>
+        <v>-6.555318746691334</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2338967041065283</v>
+        <v>-0.2947366354120293</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.411009018062072</v>
+        <v>-4.414164263046928</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.090351837851173</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.882992902214054</v>
+        <v>-6.844750285613372</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2439908695974991</v>
+        <v>-0.3027753093568492</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.112831820841761</v>
+        <v>-4.118225849612552</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.755742684977323</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.108023403457642</v>
+        <v>-7.080123706101924</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3806090497509106</v>
+        <v>-0.4372463518442176</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.851195240852707</v>
+        <v>-3.854874177951232</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.400811525986795</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.379675595120617</v>
+        <v>-7.355795234737308</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4864341336205824</v>
+        <v>-0.5363681766589257</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.493670634850852</v>
+        <v>-3.496930618258442</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.02831344047572</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.882354562728689</v>
+        <v>-7.861485431998977</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3617561336588251</v>
+        <v>-0.4152905599786429</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.368927173374886</v>
+        <v>-3.370210219053375</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.640833097219013</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.282101845395111</v>
+        <v>-8.26047336110058</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4585998977790728</v>
+        <v>-0.5037421579773442</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.388539443031791</v>
+        <v>-3.383551275649094</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.245286825681322</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.752796317160847</v>
+        <v>-8.728915956777538</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4991598519827402</v>
+        <v>-0.5459386500362274</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.106963285814789</v>
+        <v>-3.112750083670832</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.840283347784528</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.322730444466865</v>
+        <v>-9.302947974873018</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5659698733840682</v>
+        <v>-0.6095279649384909</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.732680532175524</v>
+        <v>-2.741426190473797</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.432572484963799</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.886039866534972</v>
+        <v>-9.875120885964972</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5893134493508658</v>
+        <v>-0.6285379886646771</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.573726883374128</v>
+        <v>-2.581582265079164</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.024913982311846</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.78449914904842</v>
+        <v>-10.77631645977234</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5771114231023772</v>
+        <v>-0.6207742530795336</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.177828737743173</v>
+        <v>-2.189860564054719</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.617732702064522</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.57688459393821</v>
+        <v>-11.58583972908195</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6517506416030575</v>
+        <v>-0.6889851508849264</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.936550688673004</v>
+        <v>-1.960994018078506</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.219961825103026</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.52192628996252</v>
+        <v>-12.53291073204673</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5459386500362274</v>
+        <v>-0.5900989875213695</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.713156725284632</v>
+        <v>-1.733292687055206</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.8320902739203374</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.68394672098276</v>
+        <v>-13.70082269934575</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6396795383829861</v>
+        <v>-0.6855025983290273</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.567478671564746</v>
+        <v>-1.577795406204026</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4611084230987648</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.80663787426646</v>
+        <v>-14.82306871433282</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.702051269120969</v>
+        <v>-0.7428468847757874</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.294438695800548</v>
+        <v>-1.317926287098605</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.113757576304121</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.92767939739209</v>
+        <v>-15.95207035758623</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7277383672964356</v>
+        <v>-0.7675520602381246</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.217730893450875</v>
+        <v>-1.238822593328896</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2068799501308411</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.26168031854125</v>
+        <v>-17.2939528450461</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9149190210245932</v>
+        <v>-0.9507657462052391</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.053501046604264</v>
+        <v>-1.078088391341025</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.4909688176678871</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.74049520142273</v>
+        <v>-18.78671103045402</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9317295378733694</v>
+        <v>-0.9645519410975767</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.098852783648003</v>
+        <v>-1.118412684093542</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7350355134518595</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.29451227182709</v>
+        <v>-20.34821689808385</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.015939229751351</v>
+        <v>-1.04687634136635</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.017091352401423</v>
+        <v>-1.044925588242933</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.9341836583867761</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9391935394104</v>
+        <v>-21.99588321071507</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.130850371793181</v>
+        <v>-1.15958797653077</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.022000965967071</v>
+        <v>-1.056617014680594</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.082723315017251</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.59027694308332</v>
+        <v>-23.64714990662777</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.272810211506017</v>
+        <v>-1.297004787157527</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.215989617172926</v>
+        <v>-1.247672990049903</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.178038683164059</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.64969618008683</v>
+        <v>-25.70511589801585</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.274420564755549</v>
+        <v>-1.309599582491267</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.452777006368384</v>
+        <v>-1.484421102336835</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.215852071980995</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.64508096389146</v>
+        <v>-27.6979345904635</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.272142504061089</v>
+        <v>-1.310961181986807</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.423764463271119</v>
+        <v>-1.463028279493455</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.195823351706598</v>
       </c>
       <c r="E95" t="n">
-        <v>-29.96713179589999</v>
+        <v>-30.01370111710801</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.584380834533414</v>
+        <v>-1.624613481166038</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.674940293289633</v>
+        <v>-1.708731526924128</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.116100445507773</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.09406803865829</v>
+        <v>-32.14501018901544</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.581500527908234</v>
+        <v>-1.632049909180139</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.947103084763435</v>
+        <v>-1.989142469188217</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.9834415198107125</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.47360717244484</v>
+        <v>-34.52308298488372</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.72929953468848</v>
+        <v>-1.770841411605277</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.107457609968896</v>
+        <v>-2.148266317926556</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.7949820294854394</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.5357103315309</v>
+        <v>-36.59710013955576</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.94024271807437</v>
+        <v>-1.989666161301886</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.331964419098814</v>
+        <v>-2.382029385165575</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.5707114441721275</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.84332035350501</v>
+        <v>-38.89887099446246</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.012538414366381</v>
+        <v>-2.046787878600337</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.605344794736896</v>
+        <v>-2.644949010833118</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2998687041795176</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.18390988633743</v>
+        <v>-41.23428906767239</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.419132971419026</v>
+        <v>-2.449114344926579</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.782234898431457</v>
+        <v>-2.822166422098721</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.02337321046350497</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.52760229494334</v>
+        <v>-43.57925142965395</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.597816720602904</v>
+        <v>-2.622901572847651</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.971235382254615</v>
+        <v>-3.009163783587095</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3020397386828136</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.86109579963554</v>
+        <v>-45.91986714709206</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.933372442436343</v>
+        <v>-2.949004652029364</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.339587322706578</v>
+        <v>-3.366125420566756</v>
       </c>
     </row>
   </sheetData>
